--- a/pkg/generators/kneb1/compute-variance/check-results.xlsx
+++ b/pkg/generators/kneb1/compute-variance/check-results.xlsx
@@ -165,22 +165,13 @@
 </t>
   </si>
   <si>
-    <t>+/- 0.2 Prozent</t>
-  </si>
-  <si>
     <t>(official prospectus MCI World)</t>
   </si>
   <si>
     <t>Diese Standardabweichung ist vom Sparbetrag unabhängig.</t>
   </si>
   <si>
-    <t>Sie wächst mit der Anzahl der Perioden; bei 10 Perioden ist sie bspw. nur 0.28</t>
-  </si>
-  <si>
     <t>Die Monte-Carlo Simulation fügen wir bei als Python Script sim-04.py.</t>
-  </si>
-  <si>
-    <t>Die Berechnung der schlechtesten und besten 5% Outcomes basiert auf der STD von 0.43.</t>
   </si>
   <si>
     <r>
@@ -259,6 +250,15 @@
       </rPr>
       <t>Standarabweichung ermittelt:</t>
     </r>
+  </si>
+  <si>
+    <t>stddev &lt; +/- 0.2 Prozent</t>
+  </si>
+  <si>
+    <t>Sie wächst mit der Anzahl der Perioden; bei 10 Perioden ist sie bspw. nur 0.274</t>
+  </si>
+  <si>
+    <t>Die Berechnung der schlechtesten und besten 5% Outcomes basiert auf der stddev von 0.43.</t>
   </si>
 </sst>
 </file>
@@ -526,6 +526,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,13 +542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -965,7 +965,7 @@
   <dimension ref="B1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,17 +979,17 @@
   <sheetData>
     <row r="1" spans="2:13" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-      <c r="K2" s="32" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -1323,7 +1323,7 @@
         <f t="shared" si="2"/>
         <v>15729.743887481363</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="36" t="s">
         <v>6</v>
       </c>
       <c r="L14" s="9">
@@ -1411,9 +1411,9 @@
         <v>21140.213583126249</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="35"/>
+        <v>32</v>
+      </c>
+      <c r="L17" s="32"/>
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1432,13 +1432,13 @@
         <f t="shared" si="2"/>
         <v>23069.550951744106</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="34">
         <f>0.1462</f>
         <v>0.1462</v>
       </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="36" t="s">
-        <v>30</v>
+      <c r="M18" s="33" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1458,7 +1458,7 @@
         <v>25065.450459579275</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="5"/>
@@ -1479,11 +1479,11 @@
         <f t="shared" si="2"/>
         <v>27130.208500434761</v>
       </c>
-      <c r="K20" s="38" t="s">
-        <v>37</v>
+      <c r="K20" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="36"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F21" s="4">
@@ -1501,13 +1501,13 @@
         <f t="shared" si="2"/>
         <v>29266.200693699757</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="34">
         <f>0.43</f>
         <v>0.43</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="36" t="s">
-        <v>29</v>
+      <c r="M21" s="33" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -1526,8 +1526,8 @@
         <f t="shared" si="2"/>
         <v>31475.884617632397</v>
       </c>
-      <c r="K22" s="40" t="s">
-        <v>31</v>
+      <c r="K22" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="5"/>
@@ -1548,8 +1548,8 @@
         <f t="shared" si="2"/>
         <v>33761.802636940716</v>
       </c>
-      <c r="K23" s="40" t="s">
-        <v>32</v>
+      <c r="K23" s="37" t="s">
+        <v>36</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="5"/>
@@ -1570,15 +1570,15 @@
         <f t="shared" si="2"/>
         <v>36126.584827915169</v>
       </c>
-      <c r="K24" s="40" t="s">
-        <v>34</v>
+      <c r="K24" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K25" s="41" t="s">
-        <v>33</v>
+      <c r="K25" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="14"/>
